--- a/organisation.xlsx
+++ b/organisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaseen\Desktop\hometrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{079A2468-7B28-48F7-BADB-C9DF3BC2518E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C5103F-E636-4611-85FE-E29A357EE1C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8941" yWindow="5109" windowWidth="18032" windowHeight="9391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Frontend side of F-UR 1</t>
   </si>
   <si>
-    <t>Frontend side of F-SR 2</t>
-  </si>
-  <si>
     <t>Usability survey and report</t>
   </si>
   <si>
@@ -241,6 +238,33 @@
   </si>
   <si>
     <t>2nd draft of Project planning</t>
+  </si>
+  <si>
+    <t>Frontend side of F-UR 4</t>
+  </si>
+  <si>
+    <t>F-UR 4</t>
+  </si>
+  <si>
+    <t>Frontend side of F-SR 1</t>
+  </si>
+  <si>
+    <t>Landing page, home internal conditions page</t>
+  </si>
+  <si>
+    <t>Energy breakdown page, refine register/login, and backend of energy page</t>
+  </si>
+  <si>
+    <t>Frontend side of F-UR 4 and device timeline page</t>
+  </si>
+  <si>
+    <t>F-SR 1</t>
+  </si>
+  <si>
+    <t>To be uploaded to Git</t>
+  </si>
+  <si>
+    <t>Backend</t>
   </si>
 </sst>
 </file>
@@ -724,7 +748,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
@@ -732,6 +756,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
+    <xf numFmtId="14" fontId="8" fillId="4" borderId="0" xfId="8" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -777,7 +802,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1012,17 +1048,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{843EC594-8B61-439A-91A9-B0D87B29EFB0}" name="Table2" displayName="Table2" ref="A1:H7" totalsRowShown="0" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{843EC594-8B61-439A-91A9-B0D87B29EFB0}" name="Table2" displayName="Table2" ref="A1:H7" totalsRowShown="0" dataDxfId="29">
   <autoFilter ref="A1:H7" xr:uid="{0A008C55-1AFE-469E-9B1B-59ECCCBA57E2}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5BDF2CDB-488A-4557-A2F0-16F3BBD2D877}" name="Name" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{804056EB-751D-4FEC-BF8B-AE937D7F5015}" name="Week ending date" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{C6420F38-B6AD-4AF7-845D-1AC7B214087C}" name="Objective" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{5BDF2CDB-488A-4557-A2F0-16F3BBD2D877}" name="Name" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{804056EB-751D-4FEC-BF8B-AE937D7F5015}" name="Week ending date" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{C6420F38-B6AD-4AF7-845D-1AC7B214087C}" name="Objective" dataDxfId="26"/>
     <tableColumn id="9" xr3:uid="{7C3A71D2-7824-43E4-9BC3-4640C1163F66}" name="Satisfactory Progress" dataCellStyle="Good"/>
-    <tableColumn id="4" xr3:uid="{21687B5E-C096-42B5-B358-FF6C453ED4A0}" name="Progress" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{B885D38E-90CB-4675-9A13-6C8DD7B84851}" name="Deliverables" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{1EE46279-20F5-436E-A029-B70FEDE1349C}" name="Dependencies" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{B04E38F6-8793-49E9-A252-04A2A1A35EDC}" name="Hours" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{21687B5E-C096-42B5-B358-FF6C453ED4A0}" name="Progress" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{B885D38E-90CB-4675-9A13-6C8DD7B84851}" name="Deliverables" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{1EE46279-20F5-436E-A029-B70FEDE1349C}" name="Dependencies" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{B04E38F6-8793-49E9-A252-04A2A1A35EDC}" name="Hours" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1033,7 +1069,7 @@
   <autoFilter ref="A9:H15" xr:uid="{9B15872F-D7B6-401E-831C-28C7BB633115}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C13B2CF4-3F76-4D51-B756-D111A72296FB}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{957E14F0-6710-4907-A5C5-D6E5AC31AA5D}" name="Week ending date" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{957E14F0-6710-4907-A5C5-D6E5AC31AA5D}" name="Week ending date" dataDxfId="21"/>
     <tableColumn id="3" xr3:uid="{77D7746D-18EF-4BA5-B8F5-B743F6E15B4E}" name="Objective"/>
     <tableColumn id="8" xr3:uid="{EF91DA4F-CBB3-4C2E-BE11-3FF42E040801}" name="Satisfactory Progress" dataCellStyle="Good"/>
     <tableColumn id="4" xr3:uid="{93A5D790-2610-40CF-822C-0C84A09B6FE8}" name="Progress"/>
@@ -1046,17 +1082,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FD7340E-182D-43F5-938D-6092047D1063}" name="Table32" displayName="Table32" ref="A17:H23" totalsRowShown="0" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FD7340E-182D-43F5-938D-6092047D1063}" name="Table32" displayName="Table32" ref="A17:H23" totalsRowShown="0" dataDxfId="20">
   <autoFilter ref="A17:H23" xr:uid="{AF172F78-D62B-4280-84ED-8C6B5ACDF354}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F3BD302C-C92C-4942-BD36-FA304D64F3EB}" name="Name" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{5DDBB7FD-4EE8-4F7E-A3D2-6B5A752631DF}" name="Week ending date" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{EF127786-A680-4211-B5BF-6661403383A6}" name="Objective" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{7218DB10-0B84-434B-A19F-BECFC273CDFA}" name="Satisfactory Progress" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{CBDBB2B4-ED80-4195-9D9F-B052AA6F1BAB}" name="Progress" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{0AA61E4B-0301-4C64-94A1-EA6DF7F98D6A}" name="Deliverables" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{DE9AF41C-DA93-41F7-8B94-CB8CABB0A48C}" name="Dependencies" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{53B9A5C7-49FF-497D-A8B8-1C8A6867F726}" name="Hours" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{F3BD302C-C92C-4942-BD36-FA304D64F3EB}" name="Name" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{5DDBB7FD-4EE8-4F7E-A3D2-6B5A752631DF}" name="Week ending date" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{EF127786-A680-4211-B5BF-6661403383A6}" name="Objective" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{7218DB10-0B84-434B-A19F-BECFC273CDFA}" name="Satisfactory Progress" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{CBDBB2B4-ED80-4195-9D9F-B052AA6F1BAB}" name="Progress" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{0AA61E4B-0301-4C64-94A1-EA6DF7F98D6A}" name="Deliverables" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{DE9AF41C-DA93-41F7-8B94-CB8CABB0A48C}" name="Dependencies" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{53B9A5C7-49FF-497D-A8B8-1C8A6867F726}" name="Hours" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1067,9 +1103,9 @@
   <autoFilter ref="A33:H39" xr:uid="{0A54035B-5321-4F41-8018-2E72ABE1A3CE}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7EB17E51-19DB-472E-8181-6DB89BD35F8A}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{9F725E84-51E8-4EE6-AE33-BD3341C0933D}" name="Week ending date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{9F725E84-51E8-4EE6-AE33-BD3341C0933D}" name="Week ending date" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{63C2F6D4-86F2-47E9-AAD5-955ACF3E8861}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{295EF8C6-9C55-4347-844E-A4A75F81AC1F}" name="Satisfactory Progress" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{295EF8C6-9C55-4347-844E-A4A75F81AC1F}" name="Satisfactory Progress" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{F5A99744-24AA-4B13-BB4F-EFD4E6BF40FD}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{B39838FB-0086-4A72-9E14-C0C5B3F4F9AD}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{CF988054-5385-4AEB-B9E6-4C0F08E7DA75}" name="Dependencies"/>
@@ -1084,9 +1120,9 @@
   <autoFilter ref="A25:H31" xr:uid="{DA227A29-4C8A-4B67-9C8E-01733A0B3317}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F0850E0F-9829-4438-8D05-D79BBC233B1C}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{3B2351F9-F706-4D7A-BB34-513C649561F8}" name="Week ending date" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{3B2351F9-F706-4D7A-BB34-513C649561F8}" name="Week ending date" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{B476097B-479E-43CD-8911-FA9155FA6DBF}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{9B1BC001-E56D-4DF0-8CF5-3B5133733D4C}" name="Satisfactory Progress" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{9B1BC001-E56D-4DF0-8CF5-3B5133733D4C}" name="Satisfactory Progress" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{F5B94650-8D72-4165-AB08-C77CF5DC0089}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{853EA2D7-46E8-488E-A974-5EEEF25BE38A}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{5BE041A0-A5A6-4889-816E-965200BC15AE}" name="Dependencies"/>
@@ -1101,9 +1137,9 @@
   <autoFilter ref="A41:H47" xr:uid="{D2FBF5FD-E02E-40E7-8E34-C484653BF6DF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{779B12E3-CF8D-4362-8564-A04744DFE317}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{72623AFD-AE5D-472D-BA2D-325EDEC3BBC8}" name="Week ending date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{72623AFD-AE5D-472D-BA2D-325EDEC3BBC8}" name="Week ending date" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{4E1545E5-A24C-4965-809E-8D5324CA29E0}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{233D036F-651C-4121-A865-8F7079B3F8B0}" name="Satisfactory Progress" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{233D036F-651C-4121-A865-8F7079B3F8B0}" name="Satisfactory Progress" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{27455D0B-2536-476E-A2E7-089B51EE8641}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{FDE0141F-DFB7-407A-AE25-E0F13041EDC8}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{00D62C56-F25E-406A-B0F0-E9E69B6E1BD3}" name="Dependencies"/>
@@ -1118,9 +1154,9 @@
   <autoFilter ref="A49:H55" xr:uid="{B907C122-58AE-44A3-9818-AFAFCE2F4740}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{90506F9F-7541-496A-A43C-7FD7EC833D65}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{142A1AC6-E52C-4274-A965-776324EF804D}" name="Week ending date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{142A1AC6-E52C-4274-A965-776324EF804D}" name="Week ending date" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{EE832172-8D63-453D-83A9-2DFD9679AB1E}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{F334C323-90CA-4279-B12A-94F3D8479154}" name="Satisfactory Progress" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{F334C323-90CA-4279-B12A-94F3D8479154}" name="Satisfactory Progress" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{9460083D-A7ED-4816-ADDE-8D94BBCAE2DA}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{E1713EE3-5356-4486-9FA6-43D6515C6185}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{A6623A90-3F9C-4346-A84B-C32025CC31B8}" name="Dependencies"/>
@@ -1135,13 +1171,30 @@
   <autoFilter ref="A57:H63" xr:uid="{5EAA595B-BCCD-4CC6-8C37-C37A62376111}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C3C8235C-CFD2-4419-922F-81C9263AC468}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{3EA2B805-841C-46B6-AA87-0255A0B19F40}" name="Week ending date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{3EA2B805-841C-46B6-AA87-0255A0B19F40}" name="Week ending date" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{7038F8A8-6518-4B57-A98C-328098C84ACF}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{19202101-9DC4-4AB1-AE91-3D0165543914}" name="Satisfactory Progress" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{19202101-9DC4-4AB1-AE91-3D0165543914}" name="Satisfactory Progress" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{B60F6342-2420-4464-9FE1-640027DFFA28}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{82C08185-62B0-49B8-8BF8-A43FAD604047}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{CAD1A98A-74B0-4F1D-ADD6-0C436D5EDB8E}" name="Dependencies"/>
     <tableColumn id="7" xr3:uid="{DDE76D92-AD80-4408-9513-C0D731C06694}" name="Hours"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E111353F-273C-4D3B-AB03-07542A0E9C39}" name="Table32768910" displayName="Table32768910" ref="A65:H71" totalsRowShown="0">
+  <autoFilter ref="A65:H71" xr:uid="{94928A84-CEC8-4686-A48A-A106421EFF97}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{122D3763-DD48-4DB8-8D44-5D63ED13E699}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{FCD2BFCD-EF2B-4360-B3AE-7271D88EC80B}" name="Week ending date" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{BC0C5139-381F-421E-82A5-8F2665A6D53A}" name="Objective"/>
+    <tableColumn id="8" xr3:uid="{27E0CB91-7760-4BBE-98CF-37C7F0809D4C}" name="Satisfactory Progress" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{9BFB9637-598D-41DD-B2F0-A8C74A76ABAE}" name="Progress"/>
+    <tableColumn id="5" xr3:uid="{C0CAB8E0-A4F5-4C92-8BC8-BDFAC6FC58B3}" name="Deliverables"/>
+    <tableColumn id="6" xr3:uid="{8C5A0E92-FB26-4C7B-B09F-68CCE093EF0B}" name="Dependencies"/>
+    <tableColumn id="7" xr3:uid="{24FBAD86-1429-4285-9C9B-45E1FE1087CA}" name="Hours"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1444,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1488,7 +1541,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="5">
         <v>43756</v>
@@ -1514,7 +1567,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5">
         <v>43756</v>
@@ -1540,13 +1593,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="5">
         <v>43756</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -1566,13 +1619,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5">
         <v>43756</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>9</v>
@@ -1592,7 +1645,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="3">
         <v>43756</v>
@@ -1607,7 +1660,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
@@ -1618,7 +1671,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="3">
         <v>43756</v>
@@ -1670,7 +1723,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5">
         <v>43763</v>
@@ -1685,7 +1738,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>12</v>
@@ -1696,7 +1749,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="5">
         <v>43763</v>
@@ -1711,7 +1764,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>12</v>
@@ -1722,13 +1775,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="5">
         <v>43763</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
@@ -1748,7 +1801,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="5">
         <v>43763</v>
@@ -1774,7 +1827,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="3">
         <v>43763</v>
@@ -1800,7 +1853,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="3">
         <v>43763</v>
@@ -1852,13 +1905,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="5">
         <v>43770</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>9</v>
@@ -1867,7 +1920,7 @@
         <v>20</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>12</v>
@@ -1878,13 +1931,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="5">
         <v>43770</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>9</v>
@@ -1893,7 +1946,7 @@
         <v>20</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>12</v>
@@ -1904,13 +1957,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="5">
         <v>43770</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>9</v>
@@ -1930,13 +1983,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="5">
         <v>43770</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>9</v>
@@ -1956,7 +2009,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="3">
         <v>43770</v>
@@ -1982,7 +2035,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="3">
         <v>43770</v>
@@ -2034,13 +2087,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="5">
         <v>43777</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
@@ -2049,7 +2102,7 @@
         <v>10</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>12</v>
@@ -2060,13 +2113,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="5">
         <v>43777</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>9</v>
@@ -2086,13 +2139,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5">
         <v>43777</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>9</v>
@@ -2112,13 +2165,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="5">
         <v>43777</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>9</v>
@@ -2138,7 +2191,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="3">
         <v>43777</v>
@@ -2164,7 +2217,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="3">
         <v>43777</v>
@@ -2216,13 +2269,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="5">
         <v>43784</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>9</v>
@@ -2242,13 +2295,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="5">
         <v>43784</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>9</v>
@@ -2268,13 +2321,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="5">
         <v>43784</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>9</v>
@@ -2294,13 +2347,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="5">
         <v>43784</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>9</v>
@@ -2320,7 +2373,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" s="5">
         <v>43784</v>
@@ -2346,7 +2399,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="3">
         <v>43784</v>
@@ -2398,13 +2451,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="5">
         <v>43791</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>9</v>
@@ -2413,7 +2466,7 @@
         <v>30</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>12</v>
@@ -2424,13 +2477,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="5">
         <v>43791</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>9</v>
@@ -2445,18 +2498,18 @@
         <v>12</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="5">
         <v>43791</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>9</v>
@@ -2476,13 +2529,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="5">
         <v>43791</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
@@ -2497,18 +2550,18 @@
         <v>11</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="5">
         <v>43791</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>9</v>
@@ -2523,12 +2576,12 @@
         <v>11</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="3">
         <v>43791</v>
@@ -2578,25 +2631,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="5">
         <v>43798</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H50" s="4">
         <v>0</v>
@@ -2604,25 +2657,25 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="5">
         <v>43798</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H51" s="4">
         <v>0</v>
@@ -2630,25 +2683,25 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="5">
         <v>43798</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="H52" s="4">
         <v>6</v>
@@ -2656,13 +2709,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="5">
         <v>43798</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>9</v>
@@ -2677,18 +2730,18 @@
         <v>11</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="5">
         <v>43798</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>9</v>
@@ -2697,18 +2750,18 @@
         <v>9</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="3">
         <v>43798</v>
@@ -2759,138 +2812,138 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="A58" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="5">
+        <v>43853</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="1">
-        <v>43884</v>
-      </c>
-      <c r="C58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="B59" s="5">
+        <v>43853</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G58" t="s">
-        <v>63</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="G59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="1">
-        <v>43884</v>
-      </c>
-      <c r="C59" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="B60" s="5">
+        <v>43853</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="7">
+        <v>43853</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>53</v>
-      </c>
-      <c r="B60" s="1">
-        <v>43884</v>
-      </c>
-      <c r="C60" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F60" t="s">
-        <v>66</v>
-      </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="G61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="1">
-        <v>43884</v>
-      </c>
-      <c r="C61" t="s">
-        <v>33</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F61" t="s">
-        <v>67</v>
-      </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" s="1">
-        <v>43884</v>
+      <c r="B62" s="7">
+        <v>43853</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
+      </c>
+      <c r="H62" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B63" s="3">
         <v>43884</v>
@@ -2910,8 +2963,190 @@
       <c r="G63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>12</v>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="1">
+        <v>43860</v>
+      </c>
+      <c r="C66" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" t="s">
+        <v>64</v>
+      </c>
+      <c r="G66" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="1">
+        <v>43860</v>
+      </c>
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F67" t="s">
+        <v>65</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="1">
+        <v>43860</v>
+      </c>
+      <c r="C68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F68" t="s">
+        <v>65</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="1">
+        <v>43860</v>
+      </c>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F69" t="s">
+        <v>66</v>
+      </c>
+      <c r="G69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="1">
+        <v>43860</v>
+      </c>
+      <c r="C70" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F70" t="s">
+        <v>71</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" s="3">
+        <v>43884</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2927,7 +3162,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-  <tableParts count="8">
+  <tableParts count="9">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -2936,6 +3171,7 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/organisation.xlsx
+++ b/organisation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaseen\Desktop\hometrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C5103F-E636-4611-85FE-E29A357EE1C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4054D6D8-ECD8-43AA-9FD4-B883D0154254}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1500,7 +1500,7 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>

--- a/organisation.xlsx
+++ b/organisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaseen\Desktop\hometrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4054D6D8-ECD8-43AA-9FD4-B883D0154254}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFC5187-B486-4359-A194-E2D93CD69A83}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -228,9 +228,6 @@
     <t>F-UR 1</t>
   </si>
   <si>
-    <t>F-SR 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">First draft of Project Decision and Planning </t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>2nd draft of Project planning</t>
   </si>
   <si>
-    <t>Frontend side of F-UR 4</t>
-  </si>
-  <si>
     <t>F-UR 4</t>
   </si>
   <si>
@@ -261,10 +255,28 @@
     <t>F-SR 1</t>
   </si>
   <si>
-    <t>To be uploaded to Git</t>
-  </si>
-  <si>
     <t>Backend</t>
+  </si>
+  <si>
+    <t>Frontend side of F-UR 3</t>
+  </si>
+  <si>
+    <t>Not delivered</t>
+  </si>
+  <si>
+    <t>Device activity, device timeline, connect app/server energy page</t>
+  </si>
+  <si>
+    <t>Unit tests for current backend functionality</t>
+  </si>
+  <si>
+    <t>UML diagrams</t>
+  </si>
+  <si>
+    <t>Navigation flow chart, refactoring frontend</t>
+  </si>
+  <si>
+    <t>Progress report, ER Diagram</t>
   </si>
 </sst>
 </file>
@@ -748,7 +760,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
@@ -756,7 +768,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
-    <xf numFmtId="14" fontId="8" fillId="4" borderId="0" xfId="8" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -802,7 +813,29 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1048,17 +1081,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{843EC594-8B61-439A-91A9-B0D87B29EFB0}" name="Table2" displayName="Table2" ref="A1:H7" totalsRowShown="0" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{843EC594-8B61-439A-91A9-B0D87B29EFB0}" name="Table2" displayName="Table2" ref="A1:H7" totalsRowShown="0" dataDxfId="33">
   <autoFilter ref="A1:H7" xr:uid="{0A008C55-1AFE-469E-9B1B-59ECCCBA57E2}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5BDF2CDB-488A-4557-A2F0-16F3BBD2D877}" name="Name" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{804056EB-751D-4FEC-BF8B-AE937D7F5015}" name="Week ending date" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{C6420F38-B6AD-4AF7-845D-1AC7B214087C}" name="Objective" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{5BDF2CDB-488A-4557-A2F0-16F3BBD2D877}" name="Name" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{804056EB-751D-4FEC-BF8B-AE937D7F5015}" name="Week ending date" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{C6420F38-B6AD-4AF7-845D-1AC7B214087C}" name="Objective" dataDxfId="30"/>
     <tableColumn id="9" xr3:uid="{7C3A71D2-7824-43E4-9BC3-4640C1163F66}" name="Satisfactory Progress" dataCellStyle="Good"/>
-    <tableColumn id="4" xr3:uid="{21687B5E-C096-42B5-B358-FF6C453ED4A0}" name="Progress" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{B885D38E-90CB-4675-9A13-6C8DD7B84851}" name="Deliverables" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{1EE46279-20F5-436E-A029-B70FEDE1349C}" name="Dependencies" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{B04E38F6-8793-49E9-A252-04A2A1A35EDC}" name="Hours" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{21687B5E-C096-42B5-B358-FF6C453ED4A0}" name="Progress" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{B885D38E-90CB-4675-9A13-6C8DD7B84851}" name="Deliverables" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{1EE46279-20F5-436E-A029-B70FEDE1349C}" name="Dependencies" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{B04E38F6-8793-49E9-A252-04A2A1A35EDC}" name="Hours" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5E6E233A-E28F-4EF1-9A8E-1607C35DFEFE}" name="Table3276891011" displayName="Table3276891011" ref="A73:H79" totalsRowShown="0">
+  <autoFilter ref="A73:H79" xr:uid="{D8F26B56-D129-42DB-B906-ECC3FD9D98AC}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{E7958848-6E54-42D8-8015-31182E5D7B27}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{E7CE1CB3-CCE5-4077-9B08-488BCB1D9EF4}" name="Week ending date" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{4D9FAB89-789D-4671-A910-86A17409EA96}" name="Objective"/>
+    <tableColumn id="8" xr3:uid="{475CFC22-1905-4BBA-9844-372E63A07AFE}" name="Satisfactory Progress" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{DB346AA5-986D-451A-B8D9-8A3AD26B046C}" name="Progress"/>
+    <tableColumn id="5" xr3:uid="{AA7F919D-2842-4ADE-A599-6E4452C1E440}" name="Deliverables"/>
+    <tableColumn id="6" xr3:uid="{D70A771E-6948-4BBD-9EE8-FC159BA62161}" name="Dependencies"/>
+    <tableColumn id="7" xr3:uid="{A7C27667-2E5C-4CB9-BBE2-285EE2DDC994}" name="Hours"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7823F75B-BF8D-4D3C-8B69-B038E05381C9}" name="Table327689101112" displayName="Table327689101112" ref="A81:H87" totalsRowShown="0">
+  <autoFilter ref="A81:H87" xr:uid="{15E8E00F-0F44-4534-AAF0-D8548D329B9F}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{B103AC18-C508-429B-A263-B7B31A783B0F}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{FA545805-1077-4FF3-BC3A-C6CBA99D35D5}" name="Week ending date" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DC87C481-39A1-4D17-9674-D072F67C35E9}" name="Objective"/>
+    <tableColumn id="8" xr3:uid="{55757F20-3C60-45D1-830A-12DCAA6EA793}" name="Satisfactory Progress" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{E351D832-0001-4863-910F-4BB23F082B12}" name="Progress"/>
+    <tableColumn id="5" xr3:uid="{83A49415-8729-4623-A4D2-03EDB218FB0E}" name="Deliverables"/>
+    <tableColumn id="6" xr3:uid="{2B78A1B0-88DC-4B9E-B068-3BB6976D9311}" name="Dependencies"/>
+    <tableColumn id="7" xr3:uid="{14F08A17-EB9D-493D-8B10-C5342EA6133C}" name="Hours"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1069,7 +1136,7 @@
   <autoFilter ref="A9:H15" xr:uid="{9B15872F-D7B6-401E-831C-28C7BB633115}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C13B2CF4-3F76-4D51-B756-D111A72296FB}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{957E14F0-6710-4907-A5C5-D6E5AC31AA5D}" name="Week ending date" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{957E14F0-6710-4907-A5C5-D6E5AC31AA5D}" name="Week ending date" dataDxfId="25"/>
     <tableColumn id="3" xr3:uid="{77D7746D-18EF-4BA5-B8F5-B743F6E15B4E}" name="Objective"/>
     <tableColumn id="8" xr3:uid="{EF91DA4F-CBB3-4C2E-BE11-3FF42E040801}" name="Satisfactory Progress" dataCellStyle="Good"/>
     <tableColumn id="4" xr3:uid="{93A5D790-2610-40CF-822C-0C84A09B6FE8}" name="Progress"/>
@@ -1082,17 +1149,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FD7340E-182D-43F5-938D-6092047D1063}" name="Table32" displayName="Table32" ref="A17:H23" totalsRowShown="0" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FD7340E-182D-43F5-938D-6092047D1063}" name="Table32" displayName="Table32" ref="A17:H23" totalsRowShown="0" dataDxfId="24">
   <autoFilter ref="A17:H23" xr:uid="{AF172F78-D62B-4280-84ED-8C6B5ACDF354}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F3BD302C-C92C-4942-BD36-FA304D64F3EB}" name="Name" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{5DDBB7FD-4EE8-4F7E-A3D2-6B5A752631DF}" name="Week ending date" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{EF127786-A680-4211-B5BF-6661403383A6}" name="Objective" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{7218DB10-0B84-434B-A19F-BECFC273CDFA}" name="Satisfactory Progress" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{CBDBB2B4-ED80-4195-9D9F-B052AA6F1BAB}" name="Progress" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{0AA61E4B-0301-4C64-94A1-EA6DF7F98D6A}" name="Deliverables" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{DE9AF41C-DA93-41F7-8B94-CB8CABB0A48C}" name="Dependencies" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{53B9A5C7-49FF-497D-A8B8-1C8A6867F726}" name="Hours" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{F3BD302C-C92C-4942-BD36-FA304D64F3EB}" name="Name" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{5DDBB7FD-4EE8-4F7E-A3D2-6B5A752631DF}" name="Week ending date" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{EF127786-A680-4211-B5BF-6661403383A6}" name="Objective" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{7218DB10-0B84-434B-A19F-BECFC273CDFA}" name="Satisfactory Progress" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{CBDBB2B4-ED80-4195-9D9F-B052AA6F1BAB}" name="Progress" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{0AA61E4B-0301-4C64-94A1-EA6DF7F98D6A}" name="Deliverables" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{DE9AF41C-DA93-41F7-8B94-CB8CABB0A48C}" name="Dependencies" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{53B9A5C7-49FF-497D-A8B8-1C8A6867F726}" name="Hours" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1103,9 +1170,9 @@
   <autoFilter ref="A33:H39" xr:uid="{0A54035B-5321-4F41-8018-2E72ABE1A3CE}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7EB17E51-19DB-472E-8181-6DB89BD35F8A}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{9F725E84-51E8-4EE6-AE33-BD3341C0933D}" name="Week ending date" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{9F725E84-51E8-4EE6-AE33-BD3341C0933D}" name="Week ending date" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{63C2F6D4-86F2-47E9-AAD5-955ACF3E8861}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{295EF8C6-9C55-4347-844E-A4A75F81AC1F}" name="Satisfactory Progress" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{295EF8C6-9C55-4347-844E-A4A75F81AC1F}" name="Satisfactory Progress" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{F5A99744-24AA-4B13-BB4F-EFD4E6BF40FD}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{B39838FB-0086-4A72-9E14-C0C5B3F4F9AD}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{CF988054-5385-4AEB-B9E6-4C0F08E7DA75}" name="Dependencies"/>
@@ -1120,9 +1187,9 @@
   <autoFilter ref="A25:H31" xr:uid="{DA227A29-4C8A-4B67-9C8E-01733A0B3317}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F0850E0F-9829-4438-8D05-D79BBC233B1C}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{3B2351F9-F706-4D7A-BB34-513C649561F8}" name="Week ending date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{3B2351F9-F706-4D7A-BB34-513C649561F8}" name="Week ending date" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{B476097B-479E-43CD-8911-FA9155FA6DBF}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{9B1BC001-E56D-4DF0-8CF5-3B5133733D4C}" name="Satisfactory Progress" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{9B1BC001-E56D-4DF0-8CF5-3B5133733D4C}" name="Satisfactory Progress" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{F5B94650-8D72-4165-AB08-C77CF5DC0089}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{853EA2D7-46E8-488E-A974-5EEEF25BE38A}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{5BE041A0-A5A6-4889-816E-965200BC15AE}" name="Dependencies"/>
@@ -1137,9 +1204,9 @@
   <autoFilter ref="A41:H47" xr:uid="{D2FBF5FD-E02E-40E7-8E34-C484653BF6DF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{779B12E3-CF8D-4362-8564-A04744DFE317}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{72623AFD-AE5D-472D-BA2D-325EDEC3BBC8}" name="Week ending date" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{72623AFD-AE5D-472D-BA2D-325EDEC3BBC8}" name="Week ending date" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{4E1545E5-A24C-4965-809E-8D5324CA29E0}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{233D036F-651C-4121-A865-8F7079B3F8B0}" name="Satisfactory Progress" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{233D036F-651C-4121-A865-8F7079B3F8B0}" name="Satisfactory Progress" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{27455D0B-2536-476E-A2E7-089B51EE8641}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{FDE0141F-DFB7-407A-AE25-E0F13041EDC8}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{00D62C56-F25E-406A-B0F0-E9E69B6E1BD3}" name="Dependencies"/>
@@ -1154,9 +1221,9 @@
   <autoFilter ref="A49:H55" xr:uid="{B907C122-58AE-44A3-9818-AFAFCE2F4740}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{90506F9F-7541-496A-A43C-7FD7EC833D65}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{142A1AC6-E52C-4274-A965-776324EF804D}" name="Week ending date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{142A1AC6-E52C-4274-A965-776324EF804D}" name="Week ending date" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{EE832172-8D63-453D-83A9-2DFD9679AB1E}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{F334C323-90CA-4279-B12A-94F3D8479154}" name="Satisfactory Progress" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{F334C323-90CA-4279-B12A-94F3D8479154}" name="Satisfactory Progress" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{9460083D-A7ED-4816-ADDE-8D94BBCAE2DA}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{E1713EE3-5356-4486-9FA6-43D6515C6185}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{A6623A90-3F9C-4346-A84B-C32025CC31B8}" name="Dependencies"/>
@@ -1171,9 +1238,9 @@
   <autoFilter ref="A57:H63" xr:uid="{5EAA595B-BCCD-4CC6-8C37-C37A62376111}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C3C8235C-CFD2-4419-922F-81C9263AC468}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{3EA2B805-841C-46B6-AA87-0255A0B19F40}" name="Week ending date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{3EA2B805-841C-46B6-AA87-0255A0B19F40}" name="Week ending date" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{7038F8A8-6518-4B57-A98C-328098C84ACF}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{19202101-9DC4-4AB1-AE91-3D0165543914}" name="Satisfactory Progress" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{19202101-9DC4-4AB1-AE91-3D0165543914}" name="Satisfactory Progress" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{B60F6342-2420-4464-9FE1-640027DFFA28}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{82C08185-62B0-49B8-8BF8-A43FAD604047}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{CAD1A98A-74B0-4F1D-ADD6-0C436D5EDB8E}" name="Dependencies"/>
@@ -1188,9 +1255,9 @@
   <autoFilter ref="A65:H71" xr:uid="{94928A84-CEC8-4686-A48A-A106421EFF97}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{122D3763-DD48-4DB8-8D44-5D63ED13E699}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{FCD2BFCD-EF2B-4360-B3AE-7271D88EC80B}" name="Week ending date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{FCD2BFCD-EF2B-4360-B3AE-7271D88EC80B}" name="Week ending date" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{BC0C5139-381F-421E-82A5-8F2665A6D53A}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{27E0CB91-7760-4BBE-98CF-37C7F0809D4C}" name="Satisfactory Progress" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{27E0CB91-7760-4BBE-98CF-37C7F0809D4C}" name="Satisfactory Progress" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{9BFB9637-598D-41DD-B2F0-A8C74A76ABAE}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{C0CAB8E0-A4F5-4C92-8BC8-BDFAC6FC58B3}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{8C5A0E92-FB26-4C7B-B09F-68CCE093EF0B}" name="Dependencies"/>
@@ -1497,17 +1564,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="43.77734375" customWidth="1"/>
+    <col min="3" max="3" width="55.77734375" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="6" width="25.88671875" customWidth="1"/>
     <col min="7" max="7" width="14.109375" customWidth="1"/>
@@ -2093,7 +2160,7 @@
         <v>43777</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
@@ -2171,7 +2238,7 @@
         <v>43777</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>9</v>
@@ -2457,7 +2524,7 @@
         <v>43791</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>9</v>
@@ -2890,55 +2957,55 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="5">
         <v>43853</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" s="6" t="s">
+      <c r="C61" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="3">
+        <v>43853</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="7">
-        <v>43853</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="6">
-        <v>5</v>
+      <c r="F62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -2994,133 +3061,133 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="A66" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="5">
         <v>43860</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="D66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H66" s="6" t="s">
-        <v>63</v>
+      <c r="H66" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="A67" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="5">
         <v>43860</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="5">
+        <v>43860</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="5">
+        <v>43860</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="3">
+        <v>43860</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F67" t="s">
-        <v>65</v>
-      </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>52</v>
-      </c>
-      <c r="B68" s="1">
-        <v>43860</v>
-      </c>
-      <c r="C68" t="s">
-        <v>74</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F68" t="s">
-        <v>65</v>
-      </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>53</v>
-      </c>
-      <c r="B69" s="1">
-        <v>43860</v>
-      </c>
-      <c r="C69" t="s">
-        <v>76</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F69" t="s">
-        <v>66</v>
-      </c>
-      <c r="G69" t="s">
-        <v>78</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="1">
-        <v>43860</v>
-      </c>
-      <c r="C70" t="s">
-        <v>75</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F70" t="s">
-        <v>71</v>
-      </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>63</v>
+      <c r="D70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -3128,7 +3195,7 @@
         <v>55</v>
       </c>
       <c r="B71" s="3">
-        <v>43884</v>
+        <v>43860</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
@@ -3146,6 +3213,370 @@
         <v>12</v>
       </c>
       <c r="H71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" s="5">
+        <v>43864</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H74" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B75" s="5">
+        <v>43864</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76" s="5">
+        <v>43864</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" s="5">
+        <v>43864</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H77" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" s="3">
+        <v>43864</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="3">
+        <v>43864</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" s="1">
+        <v>43874</v>
+      </c>
+      <c r="C82" t="s">
+        <v>79</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>51</v>
+      </c>
+      <c r="B83" s="1">
+        <v>43874</v>
+      </c>
+      <c r="C83" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" s="1">
+        <v>43874</v>
+      </c>
+      <c r="C84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G84" t="s">
+        <v>80</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>53</v>
+      </c>
+      <c r="B85" s="1">
+        <v>43874</v>
+      </c>
+      <c r="C85" t="s">
+        <v>74</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" s="1">
+        <v>43874</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B87" s="3">
+        <v>43874</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3162,7 +3593,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-  <tableParts count="9">
+  <tableParts count="11">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -3172,6 +3603,8 @@
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>